--- a/CH-125 Pad middle.xlsx
+++ b/CH-125 Pad middle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E219490-506F-46FD-B512-51F14DAC5C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C14C6D-7B2B-46DC-B065-39BCEE6B8857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -802,7 +824,7 @@
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
@@ -813,7 +835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
@@ -821,7 +843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
@@ -830,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
@@ -842,7 +864,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
@@ -854,7 +876,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
@@ -866,7 +888,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
@@ -878,7 +900,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
@@ -890,7 +912,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
@@ -902,23 +924,159 @@
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="4"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="4"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="str" cm="1">
+        <f t="array" ref="D13:D19">_xlfn.REGEXEXTRACT(B3:B9,"[A-Z]*")</f>
+        <v>M</v>
+      </c>
+      <c r="E13" t="str" cm="1">
+        <f t="array" ref="E13:E19">_xlfn.REGEXEXTRACT(B3:B9,"([0-9]*)$",2)</f>
+        <v>5</v>
+      </c>
+      <c r="F13" t="str">
+        <f>REPT("0",6-LEN(D13)-LEN(E13))</f>
+        <v>0000</v>
+      </c>
+      <c r="G13" t="str">
+        <f>D13&amp;F13&amp;E13</f>
+        <v>M00005</v>
+      </c>
+      <c r="H13" t="b" cm="1">
+        <f t="array" ref="H13:H19">G13:G19=D3:D9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <v>MXW</v>
+      </c>
+      <c r="E14" t="str">
+        <v>121</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" ref="F14:F19" si="0">REPT("0",6-LEN(D14)-LEN(E14))</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14:G19" si="1">D14&amp;F14&amp;E14</f>
+        <v>MXW121</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <v>MN</v>
+      </c>
+      <c r="E15" t="str">
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>000</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>MN0001</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="str">
+        <v>PQ</v>
+      </c>
+      <c r="E16" t="str">
+        <v>145</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>PQ0145</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" t="str">
+        <v>RS</v>
+      </c>
+      <c r="E17" t="str">
+        <v>802</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>RS0802</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="str">
+        <v>FF</v>
+      </c>
+      <c r="E18" t="str">
+        <v>201</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>FF0201</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="str">
+        <v>Z</v>
+      </c>
+      <c r="E19" t="str">
+        <v>410</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>00</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>Z00410</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CH-125 Pad middle.xlsx
+++ b/CH-125 Pad middle.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C14C6D-7B2B-46DC-B065-39BCEE6B8857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F4CFB4-B39F-4F43-AF09-E525FE65C9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$B$3:$B$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$3:$B$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>Result</t>
   </si>
@@ -806,11 +808,38 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="888" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{898448CF-3AF9-434F-BAC0-67416F316390}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1084,4 +1113,231 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676F641C-5A9F-42DB-9126-F998B6184A24}">
+  <dimension ref="B1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.69921875" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="str" cm="1">
+        <f t="array" ref="B13:B19">_xlfn.LET(
+    _xlpm.b, B3:B9,
+    REPLACE(
+        _xlpm.b,
+        LEN(_xlfn.TEXTBEFORE(_xlpm.b, _xlfn.SEQUENCE(10, , 0))) + 1,
+        ,
+        REPT(0, 6 - LEN(_xlpm.b))
+    )
+)</f>
+        <v>M00005</v>
+      </c>
+      <c r="C13">
+        <f>LEN(_xlfn.TEXTBEFORE(B6, _xlfn.SEQUENCE(10, , 0))) + 1</f>
+        <v>3</v>
+      </c>
+      <c r="D13" cm="1">
+        <f t="array" ref="D13:D22">_xlfn.SEQUENCE(10, , 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="str">
+        <v>MXW121</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="str">
+        <v>MN0001</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="str">
+        <v>PQ0145</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="str">
+        <v>RS0802</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="str">
+        <v>FF0201</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="str">
+        <v>Z00410</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>